--- a/code/newsubs_eyeballs.xlsx
+++ b/code/newsubs_eyeballs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-eyeballs/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A630E2-5B8F-8D4E-A553-E9DDAF02A9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E519E9-2FAC-7340-AA11-C0FF0096683B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -654,7 +654,7 @@
   <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
@@ -715,8 +715,12 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
       <c r="F2" s="7">
         <v>0</v>
       </c>
@@ -752,8 +756,12 @@
       <c r="C3" s="6">
         <v>0</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
       <c r="F3" s="7">
         <v>0</v>
       </c>
@@ -792,8 +800,12 @@
       <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
       <c r="F4" s="7">
         <v>1</v>
       </c>
@@ -832,8 +844,12 @@
       <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
       <c r="F5" s="7">
         <v>1</v>
       </c>
@@ -872,8 +888,12 @@
       <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
@@ -906,8 +926,12 @@
       <c r="C7" s="6">
         <v>0</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
       <c r="F7" s="7">
         <v>0</v>
       </c>
@@ -940,8 +964,12 @@
       <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
       <c r="F8" s="7">
         <v>1</v>
       </c>
@@ -974,8 +1002,12 @@
       <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
       <c r="F9" s="7">
         <v>1</v>
       </c>
@@ -1005,8 +1037,12 @@
       <c r="C10" s="6">
         <v>0</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
       <c r="F10" s="7">
         <v>1</v>
       </c>
@@ -1036,8 +1072,12 @@
       <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
       <c r="F11" s="7">
         <v>1</v>
       </c>
@@ -1067,8 +1107,12 @@
       <c r="C12" s="6">
         <v>1</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
       <c r="F12" s="7">
         <v>1</v>
       </c>
@@ -1098,8 +1142,12 @@
       <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
       <c r="F13" s="7">
         <v>1</v>
       </c>
@@ -1129,8 +1177,12 @@
       <c r="C14" s="6">
         <v>1</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
       <c r="F14" s="7">
         <v>1</v>
       </c>
@@ -1160,8 +1212,12 @@
       <c r="C15" s="6">
         <v>1</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
       <c r="F15" s="7">
         <v>1</v>
       </c>
@@ -1191,8 +1247,12 @@
       <c r="C16" s="6">
         <v>1</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
       <c r="F16" s="7">
         <v>1</v>
       </c>
@@ -1222,8 +1282,12 @@
       <c r="C17" s="6">
         <v>0</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
       <c r="F17" s="7">
         <v>0</v>
       </c>
@@ -1253,8 +1317,12 @@
       <c r="C18" s="6">
         <v>1</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
       <c r="F18" s="7">
         <v>1</v>
       </c>
@@ -1284,8 +1352,12 @@
       <c r="C19" s="6">
         <v>1</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
       <c r="F19" s="7">
         <v>1</v>
       </c>
@@ -1315,8 +1387,12 @@
       <c r="C20" s="6">
         <v>1</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
       <c r="F20" s="7">
         <v>1</v>
       </c>
@@ -1346,8 +1422,12 @@
       <c r="C21" s="6">
         <v>1</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
       <c r="F21" s="7">
         <v>1</v>
       </c>
@@ -1377,8 +1457,12 @@
       <c r="C22" s="6">
         <v>1</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
       <c r="F22" s="7">
         <v>1</v>
       </c>
@@ -1408,8 +1492,12 @@
       <c r="C23" s="6">
         <v>1</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
       <c r="F23" s="7">
         <v>1</v>
       </c>
@@ -1439,8 +1527,12 @@
       <c r="C24" s="6">
         <v>1</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
       <c r="F24" s="7">
         <v>1</v>
       </c>
@@ -1470,8 +1562,12 @@
       <c r="C25" s="6">
         <v>1</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
       <c r="F25" s="7">
         <v>1</v>
       </c>
@@ -1501,8 +1597,12 @@
       <c r="C26" s="6">
         <v>0</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
       <c r="F26" s="7">
         <v>1</v>
       </c>
@@ -1532,8 +1632,12 @@
       <c r="C27" s="6">
         <v>1</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
       <c r="F27" s="7">
         <v>1</v>
       </c>
@@ -1563,8 +1667,12 @@
       <c r="C28" s="6">
         <v>1</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
       <c r="F28" s="7">
         <v>1</v>
       </c>
@@ -1594,8 +1702,12 @@
       <c r="C29" s="6">
         <v>0</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
       <c r="F29" s="7">
         <v>1</v>
       </c>
@@ -1625,8 +1737,12 @@
       <c r="C30" s="6">
         <v>0</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
       <c r="F30" s="7">
         <v>0</v>
       </c>
@@ -1656,8 +1772,12 @@
       <c r="C31" s="6">
         <v>1</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
       <c r="F31" s="7">
         <v>1</v>
       </c>
@@ -1687,8 +1807,12 @@
       <c r="C32" s="6">
         <v>1</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
       <c r="F32" s="7">
         <v>1</v>
       </c>
@@ -1718,8 +1842,12 @@
       <c r="C33" s="6">
         <v>0</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
       <c r="F33" s="7">
         <v>1</v>
       </c>
@@ -1749,8 +1877,12 @@
       <c r="C34" s="6">
         <v>1</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
       <c r="F34" s="7">
         <v>1</v>
       </c>
@@ -1780,8 +1912,12 @@
       <c r="C35" s="6">
         <v>1</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
       <c r="F35" s="7">
         <v>1</v>
       </c>
@@ -1811,8 +1947,12 @@
       <c r="C36" s="6">
         <v>1</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
       <c r="F36" s="7">
         <v>1</v>
       </c>
@@ -1842,8 +1982,12 @@
       <c r="C37" s="6">
         <v>0</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
       <c r="F37" s="7">
         <v>1</v>
       </c>
@@ -1873,8 +2017,12 @@
       <c r="C38" s="6">
         <v>1</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
       <c r="F38" s="7">
         <v>1</v>
       </c>
@@ -1904,8 +2052,12 @@
       <c r="C39" s="6">
         <v>1</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
       <c r="F39" s="7">
         <v>1</v>
       </c>
@@ -1935,8 +2087,12 @@
       <c r="C40" s="6">
         <v>1</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
       <c r="F40" s="7">
         <v>1</v>
       </c>
@@ -1966,8 +2122,12 @@
       <c r="C41" s="6">
         <v>1</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
       <c r="F41" s="7">
         <v>1</v>
       </c>
@@ -1997,8 +2157,12 @@
       <c r="C42" s="6">
         <v>1</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
       <c r="F42" s="7">
         <v>1</v>
       </c>
@@ -2028,8 +2192,12 @@
       <c r="C43" s="6">
         <v>0</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
       <c r="F43" s="7">
         <v>1</v>
       </c>
@@ -2059,8 +2227,12 @@
       <c r="C44" s="6">
         <v>1</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="D44" s="6">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
       <c r="F44" s="7">
         <v>1</v>
       </c>
@@ -2090,8 +2262,12 @@
       <c r="C45" s="6">
         <v>1</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1</v>
+      </c>
       <c r="F45" s="7">
         <v>1</v>
       </c>
@@ -2121,8 +2297,12 @@
       <c r="C46" s="6">
         <v>1</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1</v>
+      </c>
       <c r="F46" s="7">
         <v>1</v>
       </c>
@@ -2152,8 +2332,12 @@
       <c r="C47" s="6">
         <v>1</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
+      <c r="D47" s="6">
+        <v>1</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
       <c r="F47" s="7">
         <v>1</v>
       </c>
@@ -2183,8 +2367,12 @@
       <c r="C48" s="6">
         <v>1</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="D48" s="6">
+        <v>1</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1</v>
+      </c>
       <c r="F48" s="7">
         <v>1</v>
       </c>
@@ -2214,8 +2402,12 @@
       <c r="C49" s="6">
         <v>1</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1</v>
+      </c>
       <c r="F49" s="7">
         <v>1</v>
       </c>
@@ -2245,8 +2437,12 @@
       <c r="C50" s="6">
         <v>0</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
       <c r="F50" s="7">
         <v>0</v>
       </c>
@@ -2276,8 +2472,12 @@
       <c r="C51" s="6">
         <v>1</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
+      <c r="D51" s="6">
+        <v>1</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
       <c r="F51" s="7">
         <v>1</v>
       </c>
@@ -2307,8 +2507,12 @@
       <c r="C52" s="6">
         <v>1</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="D52" s="6">
+        <v>1</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1</v>
+      </c>
       <c r="F52" s="7">
         <v>1</v>
       </c>
@@ -2338,8 +2542,12 @@
       <c r="C53" s="6">
         <v>0</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
+      <c r="D53" s="6">
+        <v>1</v>
+      </c>
+      <c r="E53" s="6">
+        <v>1</v>
+      </c>
       <c r="F53" s="7">
         <v>1</v>
       </c>
@@ -2369,8 +2577,12 @@
       <c r="C54" s="6">
         <v>1</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="D54" s="6">
+        <v>1</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
       <c r="F54" s="7">
         <v>1</v>
       </c>
@@ -2400,8 +2612,12 @@
       <c r="C55" s="6">
         <v>1</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
+      <c r="D55" s="6">
+        <v>1</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1</v>
+      </c>
       <c r="F55" s="7">
         <v>1</v>
       </c>
@@ -2431,8 +2647,12 @@
       <c r="C56" s="6">
         <v>0</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
       <c r="F56" s="7">
         <v>1</v>
       </c>
@@ -2462,8 +2682,12 @@
       <c r="C57" s="6">
         <v>1</v>
       </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
+      <c r="D57" s="6">
+        <v>1</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
       <c r="F57" s="7">
         <v>1</v>
       </c>
@@ -2493,8 +2717,12 @@
       <c r="C58" s="6">
         <v>0</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
+      <c r="D58" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
       <c r="F58" s="7">
         <v>1</v>
       </c>
@@ -2524,8 +2752,12 @@
       <c r="C59" s="6">
         <v>1</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
+      <c r="D59" s="6">
+        <v>1</v>
+      </c>
+      <c r="E59" s="6">
+        <v>1</v>
+      </c>
       <c r="F59" s="7">
         <v>1</v>
       </c>
@@ -2555,8 +2787,12 @@
       <c r="C60" s="7">
         <v>0</v>
       </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
+      <c r="D60" s="7">
+        <v>0</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0</v>
+      </c>
       <c r="F60" s="7">
         <v>1</v>
       </c>
